--- a/dataset/Statistik-Deskriptif.xlsx
+++ b/dataset/Statistik-Deskriptif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakti\Google Drive\2020-1-Statistika-Bisnis-I\3-Statistik-Deskriptif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A83227D-CCED-48E0-87CD-2F9823ABBEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D192BD8-8DE5-4068-8AC0-7D9658C24373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="97">
   <si>
     <t>Kota</t>
   </si>
@@ -277,12 +277,63 @@
   <si>
     <t>Sum of Belanja-Konsumen</t>
   </si>
+  <si>
+    <t>Rata-rata</t>
+  </si>
+  <si>
+    <t>Nilai Tengah</t>
+  </si>
+  <si>
+    <t>Nilai yg Sering Muncul</t>
+  </si>
+  <si>
+    <t>Simpangan Baku</t>
+  </si>
+  <si>
+    <t>Variansi Sampel</t>
+  </si>
+  <si>
+    <t>Kecondongan (Skewness)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interval/ Jangkauan (Range) </t>
+  </si>
+  <si>
+    <t>Nilai Maksimum</t>
+  </si>
+  <si>
+    <t>Nilai Minimum</t>
+  </si>
+  <si>
+    <t>Error Standar</t>
+  </si>
+  <si>
+    <t>Jumlah (Total)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyak Sampel </t>
+  </si>
+  <si>
+    <t>Kuartil 1</t>
+  </si>
+  <si>
+    <t>Kuartil 2</t>
+  </si>
+  <si>
+    <t>Kuartil 3</t>
+  </si>
+  <si>
+    <t>Kuartil 4</t>
+  </si>
+  <si>
+    <t>Persentil 10%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +472,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4103,7 +4160,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3395A92-3E15-4205-9251-7A289F79B2C0}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Jenis Bisnis">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3395A92-3E15-4205-9251-7A289F79B2C0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Jenis Bisnis">
   <location ref="A5:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -4207,7 +4264,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{219804A5-C0C1-4F3A-ABFC-F43810FDB54E}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{219804A5-C0C1-4F3A-ABFC-F43810FDB54E}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:E19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -12641,15 +12698,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8320CC29-2E7F-406F-A015-7C5BFD5D3D98}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
     <col min="2" max="3" width="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7265625" customWidth="1"/>
   </cols>
@@ -12870,8 +12927,172 @@
         <v>13</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(B6:B18)</f>
+        <v>31736.153846153848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23">
+        <f>SQRT(VAR(B6:B18)/COUNTA(B6:B18))</f>
+        <v>13507.131997315322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24">
+        <f>MEDIAN(B6:B18)</f>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25">
+        <f>MODE(B6:B18)</f>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26">
+        <f>STDEV(B6:B18)</f>
+        <v>48700.657000780717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27">
+        <f>VAR(B6:B18)</f>
+        <v>2371753992.3076921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28">
+        <f>KURT(B6:B18)</f>
+        <v>1.3098548504635228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29">
+        <f>SKEW(B6:B18)</f>
+        <v>1.5698939291465579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30">
+        <f>MAX(B6:B18)-MIN(B6:B18)</f>
+        <v>145070</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31">
+        <f>MIN(B6:B18)</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32">
+        <f>MAX(B6:B18)</f>
+        <v>145770</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33">
+        <f>SUM(B6:B18)</f>
+        <v>412570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34">
+        <f>COUNTA(B6:B18)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35">
+        <f>QUARTILE(B6:B18,1)</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36">
+        <f>QUARTILE(B7:B19,2)</f>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37">
+        <f>QUARTILE(B8:B20,3)</f>
+        <v>88900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38">
+        <f>QUARTILE(B9:B21,4)</f>
+        <v>412570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39">
+        <f>PERCENTILE(B6:B18,0.1)</f>
+        <v>980.00000000000011</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
